--- a/EMUProject/AlgorithmInterface/接口协议.xlsx
+++ b/EMUProject/AlgorithmInterface/接口协议.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoNet\EMUROBOT\AlgorithmControl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoNet\EMUROBOT\EMUProject\AlgorithmInterface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD890B2-BB31-47A0-BAFA-C5FBFF5350F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB883D7A-FAA4-4A9F-9D45-E7226048B814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0&amp;[{coordinates:890, 1, 51, 43; 1105,1,50,44; 1409,111,45,43; 1152,111,44,42; 1663,113,44,43; 1152,203,45,43; 1409,205,46,43; 1663,206,45,43; 1126,415,43,42; 1603,415,47,46; 1125,1376,50,50; 1605,1379,51,50; 1374,1985,46,44; 1994,1995,45,34; 1116,1983,46,44; 1630,1986,45,43; 1211,2025,43,42; 67,2074,46,43; 416,2076,46,45; 775,2080,45,43; 1365,2099,44,45; 1614,2102,44,43; 1966,2104,46,46; 1212,2251,42,43; 1434,2287,44,45; 1645,2288,46,47; 1870,2290,41,34; 413,2348,44,43; 852,2438,44,45; 1364,2442,41,42; 1209,2477,41,41; 1613,2605,41,40; 1768,2607,41,41; 1211,2692,44,32; 1116,2717,44,42; 1378,2721,42,40; 1635,2723,40,39; 1997,2724,43,42; 71,2778,45,43; 420,2779,45,44; 778,2782,44,45; 1054,2859,47,46; 1439,2861,44,43; 1686,2863,44,43; 1942,2864,50,50; 1055,3666,45,44; 1308,3667,45,44; 1683,3669,46,46; 1937,3670,50,48; 266,3761,45,45; 553,3763,43,41; 1051,3839,44,43; 1416,3841,45,44; 1699,3843,45,46; 263,4706,47,46; 546,4708,46,44; 915,4711,44,42; 1412,4717,43,42; 1699,4718,40,43; 123,4865,43,41; 632,4869,43,42; 446,4869,43,42; 927,4871,42,42; 1316,4875,44,42; 1585,4878,41,41; 1918,4883,43,43; 1736,4958,42,43; 124,5150,39,38; 1737,5161,41,42; 1919,5165,40,40; 121,5432,39,39; 1734,5446,42,44; 1919,5451,40,41; 119,5718,40,40; 435,5720,44,42; 762,5725,37,37; 1410,5726,45,43; 1089,5726,41,41; 1733,5730,41,41; 1915,5733,42,42; 257,5878,46,44; 544,5880,43,41; 1042,5882,45,43; 1408,5883,44,43; 1693,5884,46,44; 250,6382,48,46; 909,6386,44,43; 540,6385,44,43; 1407,6389,46,44; 1694,6390,40,42; 1,6645,30,45; 1836,6653,46,47; 1890,6655,34,46; 1832,6760,37,37; 1931,6830,42,41; 248,8042,47,46; 107,8042,46,45; 1102,8053,46,45; 1643,8057,47,46; 1865,8073,44,48; 441,8145,42,41; 901,8153,40,39; 1084,8195,45,44; 267,8183,49,48; 439,8417,43,45; 902,8427,41,43; 265,8681,48,49; 1084,8691,43,46; 438,8698,43,43; 900,8705,43,44; 443,8972,42,43; 903,8981,40,39; 268,9173,47,47; 1081,9182,44,45; 1927,9216,39,38; 446,9247,42,41; 904,9254,40,40; 1821,9288,41,40; 1925,9289,38,38; 1,9391,24,41; 1741,9395,48,45; 1250,9393,44,41; 1500,9396,43,41; 2021,9400,27,45; 1906,9399,43,44; 538,9551,48,47; 1034,9553,47,46; 251,9553,45,43; 1399,9555,45,44; 1687,9557,40,40; 538,10110,48,45; 250,10110,49,47; 905,10111,47,46; 1690,10114,44,43; 1403,10114,46,44; 314,11215,46,44; 627,11217,45,43; 1324,11221,42,40; 1634,11223,42,41; 8,11295,41,41; 949,11297,42,40; 2001,11297,43,44; 1007,11299,42,40; 1937,11303,44,46; 1940,11594,42,43; 1010,11590,39,40; 10,11596,40,41; 952,11600,39,40; 2003,11637,41,41; 1011,11883,40,40; 1942,11888,42,44; 11,11900,40,40; 953,11903,42,40; 2007,11982,39,40; 1014,12171,40,40; 1946,12178,41,43; 12,12198,39,39; 956,12201,40,41; 319,12275,44,42; 633,12275,44,42; 632,12332,43,41; 320,12333,38,37; 11,12413,38,37; 953,12416,40,42; 1013,12463,37,38; 1947,12468,41,43; 13,12710,40,39; 1013,12754,41,42; 1949,12761,41,43; 1332,12832,44,42; 1643,12834,42,40; 1333,12889,42,38; 1643,12890,43,41; 1013,12966,40,40; 1951,12969,40,43; 12,12999,42,42; 955,13005,38,39; 1011,13275,38,40; 1947,13279,43,47; 8,13298,42,39; 951,13304,41,42; 315,13380,45,41; 629,13381,43,42; 317,13437,42,40; 631,13439,42,42; 11,13514,38,37; 953,13519,40,41; 1009,13582,40,41; 1945,13587,41,44; 2005,13835,42,44; 5,13838,42,43; 949,13845,41,43; 1007,13888,41,42; 1943,13893,42,44; 5,14172,42,43; 2004,14180,44,44; 950,14180,41,39; 1009,14201,39,41; 1943,14205,44,46; 8,14496,43,43; 952,14504,41,42; 1011,14506,39,40; 1947,14509,42,43; 2009,14519,39,42; 319,14583,40,38; 1643,14589,41,40; 631,14583,41,40; 1332,14587,41,40; 545,14752,45,44; 258,14754,45,44; 1045,14754,46,45; 1413,14756,43,42; 1695,14761,41,45; 259,15412,47,45; 545,15412,47,45; 906,15490,45,44; 993,15490,46,45; 1411,15546,43,42; 1694,15546,43,47; 1004,15624,42,42; 998,15955,39,41; 676,16230,43,45; 844,16233,44,45; 996,16280,39,41; 1185,16521,43,43; 1540,16523,43,43; 1884,16526,42,44; 675,16535,42,48; 996,16614,38,40; 670,16831,43,48; 840,16836,45,46; 1103,16866,42,42; 993,16937,39,42; 1538,16954,43,42; 1177,17216,45,46; 1532,17221,44,43; 1876,17222,45,45; 994,17272,37,38; 900,17385,46,43; 988,17385,45,43; 282,17496,46,44; 669,17500,45,42; 928,17501,46,42; 282,19195,46,44; 537,19197,48,44; 796,19199,46,44;,type:LS_6J}]&amp;http://192.168.100.106/380AL_2637_common_3.jpg&amp;http://192.168.100.106/380AL_2637_common_4.jpg&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"jclx":"0115","result":["0, 0, 8, 9","23, 2, 14, 11","67, 286, 10, 8","79, 403, 11, 10","75, 492, 14, 14"]},{"jclx":"0801","result":["1, 8, 5, 6","22, 69, 9, 12","123, 329, 11, 13","555, 154, 9, 5"]},{"jclx":"0201","result":["10, 5, 10, 11","26, 23, 7, 12","230, 286, 13, 12"]},{"jclx":"0107","result":["9, 12, 5, 5","233, 233, 12, 13","154, 109, 13, 12","288, 386, 11, 12"]},{"jclx":"0114","result":["13, 56, 5, 12","118, 19, 9, 5","65, 51, 14, 5","568, 210, 5, 12"]},{"jclx":"0103","result":["57, 50, 14, 11","81, 104, 10, 13","230, 22, 14, 8","164, 77, 8, 12","98, 69, 8, 9","245, 403, 13, 11"]},{"jclx":"0106","result":["39, 55, 11, 7","58, 9, 13, 14","100, 169, 7, 12","113, 304, 9, 10","236, 215, 12, 14"]},{"jclx":"0301","result":["103, 90, 14, 7","7, 19, 7, 5","22, 9, 6, 7","307, 345, 7, 10","214, 232, 9, 10","446, 364, 14, 9","186, 141, 6, 6"]},{"jclx":"0200","result":["72, 24, 13, 7","90, 90, 12, 8","122, 164, 7, 10","127, 308, 9, 14","387, 216, 5, 12","490, 10, 6, 6"]},{"jclx":"4201","result":["157, 23, 5, 8","93, 181, 13, 14","135, 98, 10, 13","53, 47, 14, 9","88, 328, 14, 10","252, 76, 8, 14"]},{"jclx":"0205","result":["49, 149, 9, 14","162, 131, 8, 6","60, 179, 14, 7","304, 186, 13, 13"]},{"jclx":"0112","result":["67, 225, 11, 13","220, 27, 13, 11","508, 444, 12, 14","94, 517, 8, 9"]},{"jclx":"0113","result":["121, 18, 10, 10","74, 70, 6, 11","237, 208, 5, 6","480, 352, 11, 5"]}]</t>
   </si>
   <si>
@@ -273,6 +269,10 @@
   </si>
   <si>
     <t>删除Redis key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;1&amp;[{coordinates:890, 1, 51, 43; 1105,1,50,44; 1409,111,45,43; 1152,111,44,42; 1663,113,44,43; 1152,203,45,43; 1409,205,46,43; 1663,206,45,43; 1126,415,43,42; 1603,415,47,46; 1125,1376,50,50; 1605,1379,51,50; 1374,1985,46,44; 1994,1995,45,34; 1116,1983,46,44; 1630,1986,45,43; 1211,2025,43,42; 67,2074,46,43; 416,2076,46,45; 775,2080,45,43; 1365,2099,44,45; 1614,2102,44,43; 1966,2104,46,46; 1212,2251,42,43; 1434,2287,44,45; 1645,2288,46,47; 1870,2290,41,34; 413,2348,44,43; 852,2438,44,45; 1364,2442,41,42; 1209,2477,41,41; 1613,2605,41,40; 1768,2607,41,41; 1211,2692,44,32; 1116,2717,44,42; 1378,2721,42,40; 1635,2723,40,39; 1997,2724,43,42; 71,2778,45,43; 420,2779,45,44; 778,2782,44,45; 1054,2859,47,46; 1439,2861,44,43; 1686,2863,44,43; 1942,2864,50,50; 1055,3666,45,44; 1308,3667,45,44; 1683,3669,46,46; 1937,3670,50,48; 266,3761,45,45; 553,3763,43,41; 1051,3839,44,43; 1416,3841,45,44; 1699,3843,45,46; 263,4706,47,46; 546,4708,46,44; 915,4711,44,42; 1412,4717,43,42; 1699,4718,40,43; 123,4865,43,41; 632,4869,43,42; 446,4869,43,42; 927,4871,42,42; 1316,4875,44,42; 1585,4878,41,41; 1918,4883,43,43; 1736,4958,42,43; 124,5150,39,38; 1737,5161,41,42; 1919,5165,40,40; 121,5432,39,39; 1734,5446,42,44; 1919,5451,40,41; 119,5718,40,40; 435,5720,44,42; 762,5725,37,37; 1410,5726,45,43; 1089,5726,41,41; 1733,5730,41,41; 1915,5733,42,42; 257,5878,46,44; 544,5880,43,41; 1042,5882,45,43; 1408,5883,44,43; 1693,5884,46,44; 250,6382,48,46; 909,6386,44,43; 540,6385,44,43; 1407,6389,46,44; 1694,6390,40,42; 1,6645,30,45; 1836,6653,46,47; 1890,6655,34,46; 1832,6760,37,37; 1931,6830,42,41; 248,8042,47,46; 107,8042,46,45; 1102,8053,46,45; 1643,8057,47,46; 1865,8073,44,48; 441,8145,42,41; 901,8153,40,39; 1084,8195,45,44; 267,8183,49,48; 439,8417,43,45; 902,8427,41,43; 265,8681,48,49; 1084,8691,43,46; 438,8698,43,43; 900,8705,43,44; 443,8972,42,43; 903,8981,40,39; 268,9173,47,47; 1081,9182,44,45; 1927,9216,39,38; 446,9247,42,41; 904,9254,40,40; 1821,9288,41,40; 1925,9289,38,38; 1,9391,24,41; 1741,9395,48,45; 1250,9393,44,41; 1500,9396,43,41; 2021,9400,27,45; 1906,9399,43,44; 538,9551,48,47; 1034,9553,47,46; 251,9553,45,43; 1399,9555,45,44; 1687,9557,40,40; 538,10110,48,45; 250,10110,49,47; 905,10111,47,46; 1690,10114,44,43; 1403,10114,46,44; 314,11215,46,44; 627,11217,45,43; 1324,11221,42,40; 1634,11223,42,41; 8,11295,41,41; 949,11297,42,40; 2001,11297,43,44; 1007,11299,42,40; 1937,11303,44,46; 1940,11594,42,43; 1010,11590,39,40; 10,11596,40,41; 952,11600,39,40; 2003,11637,41,41; 1011,11883,40,40; 1942,11888,42,44; 11,11900,40,40; 953,11903,42,40; 2007,11982,39,40; 1014,12171,40,40; 1946,12178,41,43; 12,12198,39,39; 956,12201,40,41; 319,12275,44,42; 633,12275,44,42; 632,12332,43,41; 320,12333,38,37; 11,12413,38,37; 953,12416,40,42; 1013,12463,37,38; 1947,12468,41,43; 13,12710,40,39; 1013,12754,41,42; 1949,12761,41,43; 1332,12832,44,42; 1643,12834,42,40; 1333,12889,42,38; 1643,12890,43,41; 1013,12966,40,40; 1951,12969,40,43; 12,12999,42,42; 955,13005,38,39; 1011,13275,38,40; 1947,13279,43,47; 8,13298,42,39; 951,13304,41,42; 315,13380,45,41; 629,13381,43,42; 317,13437,42,40; 631,13439,42,42; 11,13514,38,37; 953,13519,40,41; 1009,13582,40,41; 1945,13587,41,44; 2005,13835,42,44; 5,13838,42,43; 949,13845,41,43; 1007,13888,41,42; 1943,13893,42,44; 5,14172,42,43; 2004,14180,44,44; 950,14180,41,39; 1009,14201,39,41; 1943,14205,44,46; 8,14496,43,43; 952,14504,41,42; 1011,14506,39,40; 1947,14509,42,43; 2009,14519,39,42; 319,14583,40,38; 1643,14589,41,40; 631,14583,41,40; 1332,14587,41,40; 545,14752,45,44; 258,14754,45,44; 1045,14754,46,45; 1413,14756,43,42; 1695,14761,41,45; 259,15412,47,45; 545,15412,47,45; 906,15490,45,44; 993,15490,46,45; 1411,15546,43,42; 1694,15546,43,47; 1004,15624,42,42; 998,15955,39,41; 676,16230,43,45; 844,16233,44,45; 996,16280,39,41; 1185,16521,43,43; 1540,16523,43,43; 1884,16526,42,44; 675,16535,42,48; 996,16614,38,40; 670,16831,43,48; 840,16836,45,46; 1103,16866,42,42; 993,16937,39,42; 1538,16954,43,42; 1177,17216,45,46; 1532,17221,44,43; 1876,17222,45,45; 994,17272,37,38; 900,17385,46,43; 988,17385,45,43; 282,17496,46,44; 669,17500,45,42; 928,17501,46,42; 282,19195,46,44; 537,19197,48,44; 796,19199,46,44;,type:LS_6J}]&amp;http://192.168.100.106/380AL_2637_common_3.jpg&amp;http://192.168.100.106/380AL_2637_common_4.jpg&amp;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,49 +668,49 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -724,16 +724,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -975,7 +975,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
